--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,83 +893,83 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,115 +1117,115 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,61 +1267,61 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,93 +1555,93 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,115 +1757,115 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 08:46</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1238456624.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业10月24日被深股通减持77.91万股</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1238448321.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1237923014.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,71 +2195,71 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
+          <t>太阳纸业10月26日获深股通增持80.13万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-23 15:13</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1237865854.html</t>
+          <t>/news,002078,1239496947.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-26 08:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1237859919.html</t>
+          <t>/news,002078,1238977720.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
+          <t>太阳纸业10月25日被深股通减持209.58万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 08:49</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1237356226.html</t>
+          <t>/news,002078,1238970644.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业10月20日被深股通减持222.45万股</t>
+          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-25 14:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1237347059.html</t>
+          <t>/news,002078,1238751297.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
+          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-25 08:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1236895275.html</t>
+          <t>/news,002078,1238456624.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业10月19日获深股通增持15.04万股</t>
+          <t>太阳纸业10月24日被深股通减持77.91万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1236889872.html</t>
+          <t>/news,002078,1238448321.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
+          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1236448358.html</t>
+          <t>/news,002078,1237923014.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,61 +2419,61 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业10月18日获深股通增持132.3万股</t>
+          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 07:51</t>
+          <t>10-23 15:13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1236439994.html</t>
+          <t>/news,002078,1237865854.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.74亿元，创近一年新低（10-17）</t>
+          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 08:50</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1236048208.html</t>
+          <t>/news,002078,1237859919.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业10月17日获深股通增持141.5万股</t>
+          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 08:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1236041356.html</t>
+          <t>/news,002078,1237356226.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.84亿元，创近一年新低（10-14）</t>
+          <t>太阳纸业10月20日被深股通减持222.45万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,93 +2525,93 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 08:46</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1235651186.html</t>
+          <t>/news,002078,1237347059.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1096.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1235580288.html</t>
+          <t>/news,002078,1236895275.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加732.25万元，居造纸印刷板块第四</t>
+          <t>太阳纸业10月19日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1235575988.html</t>
+          <t>/news,002078,1236889872.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业10月14日获深股通增持101.08万股</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1235512408.html</t>
+          <t>/news,002078,1236448358.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.89亿元，创近一年新低（10-13）</t>
+          <t>太阳纸业10月18日获深股通增持132.3万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 08:41</t>
+          <t>10-19 07:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1235088546.html</t>
+          <t>/news,002078,1236439994.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业10月13日被深股通减持106.7万股</t>
+          <t>太阳纸业：融资余额2.74亿元，创近一年新低（10-17）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 07:55</t>
+          <t>10-18 08:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1235083058.html</t>
+          <t>/news,002078,1236048208.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.91亿元，创近一年新低（10-12）</t>
+          <t>太阳纸业10月17日获深股通增持141.5万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-13 08:50</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1234653805.html</t>
+          <t>/news,002078,1236041356.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业10月12日被深股通减持54.01万股</t>
+          <t>太阳纸业：融资余额2.84亿元，创近一年新低（10-14）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-17 08:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1234645765.html</t>
+          <t>/news,002078,1235651186.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.92亿元，创近一年新低（10-11）</t>
+          <t>太阳纸业本周融资净偿还1096.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 08:53</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1234219594.html</t>
+          <t>/news,002078,1235580288.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业10月11日获深股通增持29.45万股</t>
+          <t>太阳纸业本周深股通持股市值增加732.25万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 07:43</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1234211801.html</t>
+          <t>/news,002078,1235575988.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.95亿元，创近一年新低（10-10）</t>
+          <t>太阳纸业10月14日获深股通增持101.08万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 08:43</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1233844005.html</t>
+          <t>/news,002078,1235512408.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业10月10日获深股通增持91.27万股</t>
+          <t>太阳纸业：融资余额2.89亿元，创近一年新低（10-13）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 07:55</t>
+          <t>10-14 08:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1233837860.html</t>
+          <t>/news,002078,1235088546.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业：“太阳转债”第三季度转股723股</t>
+          <t>太阳纸业10月13日被深股通减持106.7万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 12:00</t>
+          <t>10-14 07:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1233545423.html</t>
+          <t>/news,002078,1235083058.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额3亿元，创近一年新低（09-30）</t>
+          <t>太阳纸业：融资余额2.91亿元，创近一年新低（10-12）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 09:53</t>
+          <t>10-13 08:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1233445825.html</t>
+          <t>/news,002078,1234653805.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1805.39万元，居造纸印刷板块第一</t>
+          <t>太阳纸业10月12日被深股通减持54.01万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 15:06</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1233322833.html</t>
+          <t>/news,002078,1234645765.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加1587.77万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：融资余额2.92亿元，创近一年新低（10-11）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-12 08:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1233317370.html</t>
+          <t>/news,002078,1234219594.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,93 +605,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,51 +925,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,71 +1011,71 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,61 +1181,61 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,157 +1309,157 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,83 +1789,83 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,83 +1917,83 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,61 +2003,61 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,39 +2067,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 08:46</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1238456624.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业10月24日被深股通减持77.91万股</t>
+          <t>太阳纸业10月26日获深股通增持80.13万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1238448321.html</t>
+          <t>/news,002078,1239496947.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
+          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-26 08:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1237923014.html</t>
+          <t>/news,002078,1238977720.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,61 +2419,61 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
+          <t>太阳纸业10月25日被深股通减持209.58万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-23 15:13</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1237865854.html</t>
+          <t>/news,002078,1238970644.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 14:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1237859919.html</t>
+          <t>/news,002078,1238751297.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
+          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 08:49</t>
+          <t>10-25 08:46</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1237356226.html</t>
+          <t>/news,002078,1238456624.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业10月20日被深股通减持222.45万股</t>
+          <t>太阳纸业10月24日被深股通减持77.91万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1237347059.html</t>
+          <t>/news,002078,1238448321.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
+          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1236895275.html</t>
+          <t>/news,002078,1237923014.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业10月19日获深股通增持15.04万股</t>
+          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-23 15:13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1236889872.html</t>
+          <t>/news,002078,1237865854.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
+          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1236448358.html</t>
+          <t>/news,002078,1237859919.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业10月18日获深股通增持132.3万股</t>
+          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 07:51</t>
+          <t>10-21 08:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1236439994.html</t>
+          <t>/news,002078,1237356226.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.74亿元，创近一年新低（10-17）</t>
+          <t>太阳纸业10月20日被深股通减持222.45万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 08:50</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1236048208.html</t>
+          <t>/news,002078,1237347059.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业10月17日获深股通增持141.5万股</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1236041356.html</t>
+          <t>/news,002078,1236895275.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.84亿元，创近一年新低（10-14）</t>
+          <t>太阳纸业10月19日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 08:46</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1235651186.html</t>
+          <t>/news,002078,1236889872.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1096.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1235580288.html</t>
+          <t>/news,002078,1236448358.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加732.25万元，居造纸印刷板块第四</t>
+          <t>太阳纸业10月18日获深股通增持132.3万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 07:51</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1235575988.html</t>
+          <t>/news,002078,1236439994.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业10月14日获深股通增持101.08万股</t>
+          <t>太阳纸业：融资余额2.74亿元，创近一年新低（10-17）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-18 08:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1235512408.html</t>
+          <t>/news,002078,1236048208.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.89亿元，创近一年新低（10-13）</t>
+          <t>太阳纸业10月17日获深股通增持141.5万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 08:41</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1235088546.html</t>
+          <t>/news,002078,1236041356.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业10月13日被深股通减持106.7万股</t>
+          <t>太阳纸业：融资余额2.84亿元，创近一年新低（10-14）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 07:55</t>
+          <t>10-17 08:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1235083058.html</t>
+          <t>/news,002078,1235651186.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.91亿元，创近一年新低（10-12）</t>
+          <t>太阳纸业本周融资净偿还1096.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 08:50</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1234653805.html</t>
+          <t>/news,002078,1235580288.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业10月12日被深股通减持54.01万股</t>
+          <t>太阳纸业本周深股通持股市值增加732.25万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1234645765.html</t>
+          <t>/news,002078,1235575988.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.92亿元，创近一年新低（10-11）</t>
+          <t>太阳纸业10月14日获深股通增持101.08万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 08:53</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1234219594.html</t>
+          <t>/news,002078,1235512408.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,49 +457,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,125 +531,125 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,93 +765,93 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,61 +989,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,71 +1171,71 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,157 +1469,157 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,83 +1949,83 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>903</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,83 +2077,83 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,61 +2163,61 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>712</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 08:46</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1238456624.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业10月24日被深股通减持77.91万股</t>
+          <t>太阳纸业10月26日获深股通增持80.13万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1238448321.html</t>
+          <t>/news,002078,1239496947.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
+          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-26 08:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1237923014.html</t>
+          <t>/news,002078,1238977720.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,61 +2579,61 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
+          <t>太阳纸业10月25日被深股通减持209.58万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 15:13</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1237865854.html</t>
+          <t>/news,002078,1238970644.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 14:31</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1237859919.html</t>
+          <t>/news,002078,1238751297.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
+          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-21 08:49</t>
+          <t>10-25 08:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1237356226.html</t>
+          <t>/news,002078,1238456624.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业10月20日被深股通减持222.45万股</t>
+          <t>太阳纸业10月24日被深股通减持77.91万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1237347059.html</t>
+          <t>/news,002078,1238448321.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
+          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1236895275.html</t>
+          <t>/news,002078,1237923014.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业10月19日获深股通增持15.04万股</t>
+          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-23 15:13</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1236889872.html</t>
+          <t>/news,002078,1237865854.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
+          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1236448358.html</t>
+          <t>/news,002078,1237859919.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业10月18日获深股通增持132.3万股</t>
+          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 07:51</t>
+          <t>10-21 08:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1236439994.html</t>
+          <t>/news,002078,1237356226.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.74亿元，创近一年新低（10-17）</t>
+          <t>太阳纸业10月20日被深股通减持222.45万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-18 08:50</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1236048208.html</t>
+          <t>/news,002078,1237347059.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业10月17日获深股通增持141.5万股</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1236041356.html</t>
+          <t>/news,002078,1236895275.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.84亿元，创近一年新低（10-14）</t>
+          <t>太阳纸业10月19日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 08:46</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1235651186.html</t>
+          <t>/news,002078,1236889872.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1096.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1235580288.html</t>
+          <t>/news,002078,1236448358.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加732.25万元，居造纸印刷板块第四</t>
+          <t>太阳纸业10月18日获深股通增持132.3万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 07:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1235575988.html</t>
+          <t>/news,002078,1236439994.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业10月14日获深股通增持101.08万股</t>
+          <t>太阳纸业：融资余额2.74亿元，创近一年新低（10-17）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-18 08:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1235512408.html</t>
+          <t>/news,002078,1236048208.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,49 +457,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,157 +509,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>939</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,61 +755,61 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,71 +819,71 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,71 +1139,71 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,61 +1459,61 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>905</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,189 +2109,189 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2365,61 +2365,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业10月26日获深股通增持80.13万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1239496947.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-26 08:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1238977720.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
+          <t>太阳纸业10月25日被深股通减持209.58万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 08:46</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1238456624.html</t>
+          <t>/news,002078,1238970644.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业10月24日被深股通减持77.91万股</t>
+          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 14:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1238448321.html</t>
+          <t>/news,002078,1238751297.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
+          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 08:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1237923014.html</t>
+          <t>/news,002078,1238456624.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,93 +2739,93 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
+          <t>太阳纸业10月24日被深股通减持77.91万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-23 15:13</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1237865854.html</t>
+          <t>/news,002078,1238448321.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1237859919.html</t>
+          <t>/news,002078,1237923014.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
+          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-21 08:49</t>
+          <t>10-23 15:13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1237356226.html</t>
+          <t>/news,002078,1237865854.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业10月20日被深股通减持222.45万股</t>
+          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1237347059.html</t>
+          <t>/news,002078,1237859919.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
+          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-21 08:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1236895275.html</t>
+          <t>/news,002078,1237356226.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业10月19日获深股通增持15.04万股</t>
+          <t>太阳纸业10月20日被深股通减持222.45万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1236889872.html</t>
+          <t>/news,002078,1237347059.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1236448358.html</t>
+          <t>/news,002078,1236895275.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业10月18日获深股通增持132.3万股</t>
+          <t>太阳纸业10月19日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 07:51</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1236439994.html</t>
+          <t>/news,002078,1236889872.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.74亿元，创近一年新低（10-17）</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 08:50</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1236048208.html</t>
+          <t>/news,002078,1236448358.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,12 +553,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>945</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>906</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2345,7 +2345,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,115 +509,115 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,71 +627,71 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>996</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,179 +957,179 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,157 +1235,157 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1474,14 +1474,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,147 +1533,147 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,189 +1725,189 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,115 +1917,115 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,125 +2077,125 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>907</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,61 +2227,61 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业10月26日获深股通增持80.13万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1239496947.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-26 08:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1238977720.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业10月25日被深股通减持209.58万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1238970644.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>796</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
+          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 08:46</t>
+          <t>10-25 14:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1238456624.html</t>
+          <t>/news,002078,1238751297.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业10月24日被深股通减持77.91万股</t>
+          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 08:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1238448321.html</t>
+          <t>/news,002078,1238456624.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
+          <t>太阳纸业10月24日被深股通减持77.91万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1237923014.html</t>
+          <t>/news,002078,1238448321.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-23 15:13</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1237865854.html</t>
+          <t>/news,002078,1237923014.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,71 +2835,71 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
+          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-23 15:13</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1237859919.html</t>
+          <t>/news,002078,1237865854.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
+          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 08:49</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1237356226.html</t>
+          <t>/news,002078,1237859919.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业10月20日被深股通减持222.45万股</t>
+          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 08:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1237347059.html</t>
+          <t>/news,002078,1237356226.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
+          <t>太阳纸业10月20日被深股通减持222.45万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1236895275.html</t>
+          <t>/news,002078,1237347059.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业10月19日获深股通增持15.04万股</t>
+          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1236889872.html</t>
+          <t>/news,002078,1236895275.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-18）</t>
+          <t>太阳纸业10月19日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1236448358.html</t>
+          <t>/news,002078,1236889872.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,157 +605,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,61 +851,61 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,71 +915,71 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,61 +989,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,71 +1235,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,61 +1555,61 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,51 +1693,51 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>911</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,189 +2205,189 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业10月26日获深股通增持80.13万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1239496947.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-26 08:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1238977720.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
+          <t>太阳纸业10月25日被深股通减持209.58万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 08:46</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1238456624.html</t>
+          <t>/news,002078,1238970644.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>806</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业10月24日被深股通减持77.91万股</t>
+          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 14:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1238448321.html</t>
+          <t>/news,002078,1238751297.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
+          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 08:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1237923014.html</t>
+          <t>/news,002078,1238456624.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,93 +2835,93 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
+          <t>太阳纸业10月24日被深股通减持77.91万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 15:13</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1237865854.html</t>
+          <t>/news,002078,1238448321.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1237859919.html</t>
+          <t>/news,002078,1237923014.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
+          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 08:49</t>
+          <t>10-23 15:13</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1237356226.html</t>
+          <t>/news,002078,1237865854.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业10月20日被深股通减持222.45万股</t>
+          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1237347059.html</t>
+          <t>/news,002078,1237859919.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业：融资余额2.69亿元，创近一年新低（10-19）</t>
+          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-21 08:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1236895275.html</t>
+          <t>/news,002078,1237356226.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业10月19日获深股通增持15.04万股</t>
+          <t>太阳纸业10月20日被深股通减持222.45万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1236889872.html</t>
+          <t>/news,002078,1237347059.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,71 +691,71 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,83 +989,83 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,157 +1117,157 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>715</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,167 +1331,167 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,71 +1587,71 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,83 +1693,83 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,83 +1789,83 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,83 +1885,83 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>912</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,135 +2355,135 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业10月26日获深股通增持80.13万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1239496947.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
+          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 08:46</t>
+          <t>10-26 08:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1238456624.html</t>
+          <t>/news,002078,1238977720.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业10月24日被深股通减持77.91万股</t>
+          <t>太阳纸业10月25日被深股通减持209.58万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1238448321.html</t>
+          <t>/news,002078,1238970644.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>807</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
+          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 14:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1237923014.html</t>
+          <t>/news,002078,1238751297.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 15:13</t>
+          <t>10-25 08:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1237865854.html</t>
+          <t>/news,002078,1238456624.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加860.78万元，居造纸印刷板块第二</t>
+          <t>太阳纸业10月24日被深股通减持77.91万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1237859919.html</t>
+          <t>/news,002078,1238448321.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入375.33万元，融资余额2.73亿元（10-20）</t>
+          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 08:49</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1237356226.html</t>
+          <t>/news,002078,1237923014.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业10月20日被深股通减持222.45万股</t>
+          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-23 15:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1237347059.html</t>
+          <t>/news,002078,1237865854.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,61 +1213,61 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,83 +1341,83 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>715</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,71 +1427,71 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,71 +1555,71 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,115 +2077,115 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,115 +2237,115 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,125 +2355,125 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,135 +2483,135 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计2626.84万元（10-24）</t>
+          <t>太阳纸业10月26日获深股通增持80.13万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 08:46</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1238456624.html</t>
+          <t>/news,002078,1239496947.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业10月24日被深股通减持77.91万股</t>
+          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-26 08:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1238448321.html</t>
+          <t>/news,002078,1238977720.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入740.99万元，融资余额2.8亿元（10-21）</t>
+          <t>太阳纸业10月25日被深股通减持209.58万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1237923014.html</t>
+          <t>/news,002078,1238970644.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1185.45万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-23 15:13</t>
+          <t>10-25 14:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1237865854.html</t>
+          <t>/news,002078,1238751297.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,71 +627,71 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,83 +1469,83 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>718</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,71 +1555,71 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,71 +1683,71 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,61 +1907,61 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,115 +2205,115 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,115 +2365,115 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,125 +2483,125 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>920</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,135 +2611,135 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 17:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240469575.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 17:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240469080.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业10月26日获深股通增持80.13万股</t>
+          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 16:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1239496947.html</t>
+          <t>/news,002078,1240465220.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计2897.2万元（10-25）</t>
+          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-26 08:48</t>
+          <t>10-28 09:01</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1238977720.html</t>
+          <t>/news,002078,1240059344.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业10月25日被深股通减持209.58万股</t>
+          <t>太阳纸业10月27日获深股通增持166.26万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-28 07:55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1238970644.html</t>
+          <t>/news,002078,1240048909.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业：多纸种11月起涨价 部分品种将迎单月两连涨</t>
+          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 14:31</t>
+          <t>10-27 08:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1238751297.html</t>
+          <t>/news,002078,1239505176.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,71 +1267,71 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,93 +1405,93 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,221 +1597,221 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,135 +1843,135 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,199 +2323,199 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,125 +2525,125 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,83 +2653,83 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>925</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,61 +2835,61 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业股东户数下降12.49%，户均持股44.44万元</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 17:07</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1240469575.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 17:00</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1240469080.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年前三季度净利润同比下降18.07%</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 16:52</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1240465220.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还383.65万元，融资余额2.9亿元（10-27）</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 09:01</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1240059344.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业10月27日获深股通增持166.26万股</t>
+          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 07:55</t>
+          <t>10-28 17:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1240048909.html</t>
+          <t>/news,002078,1240482292.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还394万元，融资余额2.94亿元（10-26）</t>
+          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 08:47</t>
+          <t>10-28 17:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1239505176.html</t>
+          <t>/news,002078,1240471486.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,61 +851,61 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,157 +1213,157 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,61 +1459,61 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,71 +1523,71 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,71 +1843,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,61 +2163,61 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>927</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,189 +2813,189 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240731804.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 15:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240712511.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业：前三季度归母净利润22.68亿元 同比下降18.07%</t>
+          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 17:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1240482292.html</t>
+          <t>/news,002078,1240707071.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业：拟不超90亿元投建南宁一期项目</t>
+          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 17:13</t>
+          <t>10-28 22:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1240471486.html</t>
+          <t>/news,002078,1240554442.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>2251</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>745</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,93 +861,93 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,71 +1011,71 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,61 +1213,61 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,44 +1501,44 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,83 +1853,83 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,71 +1939,71 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,71 +2067,71 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,61 +2291,61 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,115 +2589,115 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,115 +2749,115 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,125 +2867,125 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中金公司维持太阳纸业跑赢行业评级 目标价16元</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 17:45</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1240731804.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入1003.23万元，居造纸印刷板块第五</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 15:07</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1240712511.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>792</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少417.51万元，居造纸印刷板块第三</t>
+          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 20:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1240707071.html</t>
+          <t>/news,002078,1240752392.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>【图解季报】太阳纸业：2022年前三季度归母净利润为22.7亿元，同比下降18.1%</t>
+          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 22:07</t>
+          <t>10-30 20:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1240554442.html</t>
+          <t>/news,002078,1240745051.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2251</t>
+          <t>2257</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1513,7 +1513,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1609,7 +1609,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -462,12 +462,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2257</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>749</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1424</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,61 +1043,61 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,157 +1405,157 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,61 +1651,61 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,71 +1715,71 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,71 +2035,71 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,61 +2355,61 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华西证券给予太阳纸业买入评级 Q3业绩短期承压 南宁项目一期规划明确</t>
+          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 20:41</t>
+          <t>10-31 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1240752392.html</t>
+          <t>/news,002078,1240789254.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华西证券维持太阳纸业买入评级 预计2022年净利润同比减少4.53%</t>
+          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-30 20:06</t>
+          <t>10-31 07:27</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1240745051.html</t>
+          <t>/news,002078,1240787868.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2291</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,61 +1107,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,157 +1469,157 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,61 +1715,61 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,71 +1779,71 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,71 +2099,71 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,61 +2419,61 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>2033</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国联证券给予太阳纸业买入评级 2022Q3盈利承压 看好林浆纸一体化优势</t>
+          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 07:49</t>
+          <t>10-31 15:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1240789254.html</t>
+          <t>/news,002078,1241142391.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国联证券维持太阳纸业买入评级 目标价15元</t>
+          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 07:27</t>
+          <t>10-31 08:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1240787868.html</t>
+          <t>/news,002078,1240795608.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,61 +659,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>2349</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1439</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,61 +1171,61 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,157 +1533,157 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,71 +1843,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,71 +2163,71 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,51 +2237,51 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,61 +2483,61 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>2033</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华安证券维持太阳纸业买入评级 预计2022年净利润同比减少7.57%</t>
+          <t>太阳纸业放量跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 15:54</t>
+          <t>10-31 16:34</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1241142391.html</t>
+          <t>/news,002078,1241153984.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1256.8万元（10-28）</t>
+          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 08:52</t>
+          <t>10-31 15:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1240795608.html</t>
+          <t>/news,002078,1241143486.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2349</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,61 +1235,61 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,157 +1597,157 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,61 +1843,61 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,71 +1907,71 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,71 +2227,71 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-01 11:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1241483530.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-01 10:04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1241404522.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 09:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1241370060.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 08:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1241304474.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1241296440.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>东兴证券给予太阳纸业推荐评级</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1241282386.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,61 +2547,61 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>信达证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-01 00:29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1241282348.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-01 00:11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1241278714.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>10-31 23:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1241275986.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>10-31 21:23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1241249491.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1241233806.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>10-31 21:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1241246657.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>10-31 20:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1241227702.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>10-31 19:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241208571.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>10-31 19:17</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241198143.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>国元证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>10-31 18:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241194708.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 18:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241191879.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>东方证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>10-31 17:19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241168196.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241166560.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业放量跌停 机构资金现分歧</t>
+          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 16:34</t>
+          <t>10-31 16:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1241153984.html</t>
+          <t>/news,002078,1241156420.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>2036</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华安证券给予太阳纸业买入评级， 底部盈利显韧性 林浆纸布局持续深化</t>
+          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 15:56</t>
+          <t>10-31 16:39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1241143486.html</t>
+          <t>/news,002078,1241155509.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,71 +1043,71 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,71 +1267,71 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,103 +2067,103 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,115 +2301,115 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>光大证券维持太阳纸业买入评级 预计2022年净利润同比减少5.85%</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 11:48</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1241483530.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国信证券给予太阳纸业买入评级 三季度收入增长24% 毛利率环比下降 合理价格为14.9-15.7元</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 10:04</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1241404522.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国信证券维持太阳纸业买入评级 目标价14.9~15.7元</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 09:56</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1241370060.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入2014.52万元，融资余额3.05亿元（10-31）</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 08:50</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1241304474.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业10月31日被深股通减持1289.03万股</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1241296440.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东兴证券给予太阳纸业推荐评级</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1241282386.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>信达证券给予太阳纸业买入评级</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 00:29</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1241282348.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东兴证券维持太阳纸业推荐评级 预计2022年净利润同比减少1.21%</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 00:11</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1241278714.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>信达证券维持太阳纸业买入评级 预计2022年净利润同比减少4.09%</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 23:48</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1241275986.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中国银河给予太阳纸业推荐评级 收入保持20% 增长 静待盈利改善</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 21:23</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1241249491.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中国银河维持太阳纸业推荐评级 预计2022年净利润同比减少4.73%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1241233806.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中泰证券给予太阳纸业买入评级 盈利底部有望改善 南宁基地稳步推进</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 21:07</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1241246657.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中泰证券维持太阳纸业买入评级 预计2022年净利润同比增长0.78%</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 20:55</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1241227702.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国盛证券维持太阳纸业买入评级 预计2022年净利润同比减少2.6%</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 19:54</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1241208571.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>招商证券维持太阳纸业强烈推荐评级 预计2022年净利润同比减少9.53%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 19:17</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1241198143.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国元证券给予太阳纸业买入评级</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-31 18:58</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1241194708.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国元证券维持太阳纸业买入评级 预计2022年净利润同比减少3.78%</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 18:53</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1241191879.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东方证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 17:19</t>
+          <t>11-02 08:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1241168196.html</t>
+          <t>/news,002078,1241807395.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东方证券维持太阳纸业买入评级 目标价14.9元</t>
+          <t>太阳纸业11月01日被深股通减持328.03万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-02 07:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1241166560.html</t>
+          <t>/news,002078,1241800123.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，太阳纸业跌停（10-31）</t>
+          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 16:42</t>
+          <t>11-01 17:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1241156420.html</t>
+          <t>/news,002078,1241651079.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2036</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业(002078)龙虎榜数据(10-31)</t>
+          <t>太阳纸业股价创逾27个月新低</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 16:39</t>
+          <t>11-01 15:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1241155509.html</t>
+          <t>/news,002078,1241629942.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,93 +669,93 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,83 +797,83 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,93 +1405,93 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2541</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,71 +2067,71 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入467.3万元，融资余额3.1亿元（11-01）</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,83 +2909,83 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 08:42</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1241807395.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业11月01日被深股通减持328.03万股</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 07:43</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1241800123.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>长江证券维持太阳纸业买入评级 预计2022年净利润同比减少4.8%</t>
+          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 17:01</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1241651079.html</t>
+          <t>/news,002078,1241958247.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业股价创逾27个月新低</t>
+          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 15:37</t>
+          <t>11-02 10:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1241629942.html</t>
+          <t>/news,002078,1241942707.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
+          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 11:18</t>
+          <t>12-07 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1255669040.html</t>
+          <t>/news,002078,1256099151.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
+          <t>太阳纸业12月06日被深股通减持35.62万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 08:41</t>
+          <t>12-07 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1255455538.html</t>
+          <t>/news,002078,1256090898.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业12月05日获深股通增持5.54万股</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1255449704.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-05 17:43</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1255244877.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -770,24 +770,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,61 +851,61 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,135 +1171,135 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,61 +1587,61 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>2551</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,61 +2099,61 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,157 +2461,157 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,61 +2707,61 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,71 +2771,71 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>西南证券给予太阳纸业买入评级 业绩稳健 静待盈利拐点</t>
+          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-02 16:37</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1241958247.html</t>
+          <t>/news,002078,1242181532.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>西南证券维持太阳纸业买入评级 预计2022年净利润同比减少6.2%</t>
+          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 10:51</t>
+          <t>11-02 16:29</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1241942707.html</t>
+          <t>/news,002078,1242178657.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
+          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 08:50</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1256099151.html</t>
+          <t>/news,002078,1256765044.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业12月06日被深股通减持35.62万股</t>
+          <t>太阳纸业12月07日被深股通减持34.62万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:48</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1256090898.html</t>
+          <t>/news,002078,1256758328.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
+          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 11:18</t>
+          <t>12-07 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1255669040.html</t>
+          <t>/news,002078,1256099151.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
+          <t>太阳纸业12月06日被深股通减持35.62万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 08:41</t>
+          <t>12-07 07:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1255455538.html</t>
+          <t>/news,002078,1256090898.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业12月05日获深股通增持5.54万股</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1255449704.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-05 17:43</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1255244877.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,24 +669,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>953</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -834,24 +834,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,135 +1235,135 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,61 +1651,61 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>2553</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,61 +2163,61 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,157 +2525,157 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,61 +2771,61 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,71 +2835,71 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>安信证券给予太阳纸业买入评级 22Q3业绩表现稳健 林浆纸一体化优势显著</t>
+          <t>开源证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 16:37</t>
+          <t>11-02 19:13</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1242181532.html</t>
+          <t>/news,002078,1242221182.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>安信证券维持太阳纸业买入评级 目标价17.23元</t>
+          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 16:29</t>
+          <t>11-02 18:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1242178657.html</t>
+          <t>/news,002078,1242215514.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
+          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1256765044.html</t>
+          <t>/news,002078,1257405817.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业12月07日被深股通减持34.62万股</t>
+          <t>太阳纸业12月08日获深股通增持66.95万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1256758328.html</t>
+          <t>/news,002078,1257393806.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
+          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 08:50</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1256099151.html</t>
+          <t>/news,002078,1256765044.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业12月06日被深股通减持35.62万股</t>
+          <t>太阳纸业12月07日被深股通减持34.62万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:48</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1256090898.html</t>
+          <t>/news,002078,1256758328.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
+          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 11:18</t>
+          <t>12-07 08:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1255669040.html</t>
+          <t>/news,002078,1256099151.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
+          <t>太阳纸业12月06日被深股通减持35.62万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 08:41</t>
+          <t>12-07 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1255455538.html</t>
+          <t>/news,002078,1256090898.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业12月05日获深股通增持5.54万股</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1255449704.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-05 17:43</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1255244877.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,24 +733,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>980</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -898,24 +898,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,135 +1299,135 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,61 +1715,61 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,61 +2227,61 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,157 +2589,157 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,61 +2835,61 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,71 +2899,71 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-03 15:02</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242639110.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 13:26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242553221.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>开源证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 19:13</t>
+          <t>11-03 08:44</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1242221182.html</t>
+          <t>/news,002078,1242332666.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>开源证券维持太阳纸业买入(Buy)评级 预计2022年净利润同比增长2.58%</t>
+          <t>太阳纸业11月02日被深股通减持159.04万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 18:52</t>
+          <t>11-03 07:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1242215514.html</t>
+          <t>/news,002078,1242325267.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
+          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-12 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1257405817.html</t>
+          <t>/news,002078,1258213576.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业12月08日获深股通增持66.95万股</t>
+          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-11 15:10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1257393806.html</t>
+          <t>/news,002078,1258090927.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
+          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1256765044.html</t>
+          <t>/news,002078,1258081964.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业12月07日被深股通减持34.62万股</t>
+          <t>太阳纸业12月09日获深股通增持7.45万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1256758328.html</t>
+          <t>/news,002078,1257964943.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
+          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 08:50</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1256099151.html</t>
+          <t>/news,002078,1257405817.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业12月06日被深股通减持35.62万股</t>
+          <t>太阳纸业12月08日获深股通增持66.95万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:48</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1256090898.html</t>
+          <t>/news,002078,1257393806.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
+          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 11:18</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1255669040.html</t>
+          <t>/news,002078,1256765044.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
+          <t>太阳纸业12月07日被深股通减持34.62万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 08:41</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1255455538.html</t>
+          <t>/news,002078,1256758328.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业12月05日获深股通增持5.54万股</t>
+          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 08:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1255449704.html</t>
+          <t>/news,002078,1256099151.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月06日被深股通减持35.62万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-05 17:43</t>
+          <t>12-07 07:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1255244877.html</t>
+          <t>/news,002078,1256090898.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,93 +989,93 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,83 +1117,83 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,93 +1469,93 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,93 +1725,93 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,71 +2387,71 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东吴证券维持太阳纸业买入评级 预计2022年净利润同比增长4%</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 15:02</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1242639110.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>兴业证券维持太阳纸业审慎增持评级 预计2022年净利润同比减少2.87%</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 13:26</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1242553221.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计4215.26万元（11-02）</t>
+          <t>太阳纸业11月03日被深股通减持87.43万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 08:44</t>
+          <t>11-04 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1242332666.html</t>
+          <t>/news,002078,1242817197.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业11月02日被深股通减持159.04万股</t>
+          <t>东吴证券给予太阳纸业买入评级</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 07:50</t>
+          <t>11-03 15:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1242325267.html</t>
+          <t>/news,002078,1242645848.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
+          <t>太阳纸业：融资净买入1049.22万元，融资余额3.02亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 08:51</t>
+          <t>12-13 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1258213576.html</t>
+          <t>/news,002078,1258768428.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
+          <t>太阳纸业12月12日获深股通增持28.14万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:10</t>
+          <t>12-13 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1258090927.html</t>
+          <t>/news,002078,1258762177.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
+          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-12 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1258081964.html</t>
+          <t>/news,002078,1258213576.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业12月09日获深股通增持7.45万股</t>
+          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:51</t>
+          <t>12-11 15:10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1257964943.html</t>
+          <t>/news,002078,1258090927.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
+          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1257405817.html</t>
+          <t>/news,002078,1258081964.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业12月08日获深股通增持66.95万股</t>
+          <t>太阳纸业12月09日获深股通增持7.45万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1257393806.html</t>
+          <t>/news,002078,1257964943.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
+          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1256765044.html</t>
+          <t>/news,002078,1257405817.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业12月07日被深股通减持34.62万股</t>
+          <t>太阳纸业12月08日获深股通增持66.95万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1256758328.html</t>
+          <t>/news,002078,1257393806.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
+          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 08:50</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1256099151.html</t>
+          <t>/news,002078,1256765044.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业12月06日被深股通减持35.62万股</t>
+          <t>太阳纸业12月07日被深股通减持34.62万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 07:48</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1256090898.html</t>
+          <t>/news,002078,1256758328.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
+          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 11:18</t>
+          <t>12-07 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1255669040.html</t>
+          <t>/news,002078,1256099151.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
+          <t>太阳纸业12月06日被深股通减持35.62万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 08:41</t>
+          <t>12-07 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1255455538.html</t>
+          <t>/news,002078,1256090898.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业12月05日获深股通增持5.54万股</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1255449704.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-05 17:43</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1255244877.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,24 +925,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1090,24 +1090,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,61 +1171,61 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,135 +1491,135 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,61 +1907,61 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,61 +2419,61 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,157 +2781,157 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-06 14:09</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243405496.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业11月04日获深股通增持31.95万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243319637.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业11月03日被深股通减持87.43万股</t>
+          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 07:49</t>
+          <t>11-04 11:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1242817197.html</t>
+          <t>/news,002078,1242985690.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东吴证券给予太阳纸业买入评级</t>
+          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 15:12</t>
+          <t>11-04 08:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1242645848.html</t>
+          <t>/news,002078,1242825087.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入1049.22万元，融资余额3.02亿元（12-12）</t>
+          <t>太阳纸业：融资净买入675.52万元，融资余额3.09亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 08:48</t>
+          <t>12-14 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1258768428.html</t>
+          <t>/news,002078,1259355219.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业12月12日获深股通增持28.14万股</t>
+          <t>太阳纸业12月13日获深股通增持136.13万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:55</t>
+          <t>12-14 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1258762177.html</t>
+          <t>/news,002078,1259346761.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>879</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
+          <t>大宗交易：机构账户卖出太阳纸业1963.5万元（12-13）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 08:51</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1258213576.html</t>
+          <t>/news,002078,1259133028.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
+          <t>太阳纸业回应纸浆价格：期货价格仍在高位 今年毛利率受影响</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:10</t>
+          <t>12-13 15:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1258090927.html</t>
+          <t>/news,002078,1259089438.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
+          <t>太阳纸业：融资净买入1049.22万元，融资余额3.02亿元（12-12）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-13 08:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1258081964.html</t>
+          <t>/news,002078,1258768428.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业12月09日获深股通增持7.45万股</t>
+          <t>太阳纸业12月12日获深股通增持28.14万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 07:51</t>
+          <t>12-13 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1257964943.html</t>
+          <t>/news,002078,1258762177.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
+          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-12 08:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1257405817.html</t>
+          <t>/news,002078,1258213576.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业12月08日获深股通增持66.95万股</t>
+          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-11 15:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1257393806.html</t>
+          <t>/news,002078,1258090927.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
+          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1256765044.html</t>
+          <t>/news,002078,1258081964.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业12月07日被深股通减持34.62万股</t>
+          <t>太阳纸业12月09日获深股通增持7.45万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1256758328.html</t>
+          <t>/news,002078,1257964943.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
+          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 08:50</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1256099151.html</t>
+          <t>/news,002078,1257405817.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业12月06日被深股通减持35.62万股</t>
+          <t>太阳纸业12月08日获深股通增持66.95万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 07:48</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1256090898.html</t>
+          <t>/news,002078,1257393806.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
+          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 11:18</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1255669040.html</t>
+          <t>/news,002078,1256765044.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
+          <t>太阳纸业12月07日被深股通减持34.62万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 08:41</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1255455538.html</t>
+          <t>/news,002078,1256758328.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业12月05日获深股通增持5.54万股</t>
+          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 08:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1255449704.html</t>
+          <t>/news,002078,1256099151.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月06日被深股通减持35.62万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-05 17:43</t>
+          <t>12-07 07:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1255244877.html</t>
+          <t>/news,002078,1256090898.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,93 +1181,93 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>718</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,83 +1309,83 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,93 +1661,93 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>2586</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,71 +2579,71 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业11月11日获深股通增持180.84万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-12 07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1245986606.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-11 08:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1245424756.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业11月10日获深股通增持14.16万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1245412501.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-10 14:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1245205689.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1244898523.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业11月09日获深股通增持7.22万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-10 07:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1244889157.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-09 08:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1244435655.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 08:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1243981914.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值减少1.94亿元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月07日获深股通增持5.45万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-06 14:09</t>
+          <t>11-08 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1243405496.html</t>
+          <t>/news,002078,1243975305.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业11月04日获深股通增持31.95万股</t>
+          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 10:38</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1243319637.html</t>
+          <t>/news,002078,1243634800.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国金证券给予太阳纸业买入评级 短期盈利承压 静待需求好转盈利修复</t>
+          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 11:06</t>
+          <t>11-07 08:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1242985690.html</t>
+          <t>/news,002078,1243512122.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业：连续4日融资净买入累计4478.92万元（11-03）</t>
+          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 08:44</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1242825087.html</t>
+          <t>/news,002078,1243413004.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入675.52万元，融资余额3.09亿元（12-13）</t>
+          <t>太阳纸业：融资净买入759.04万元，融资余额2.95亿元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 08:53</t>
+          <t>12-20 08:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1259355219.html</t>
+          <t>/news,002078,1261730434.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业12月13日获深股通增持136.13万股</t>
+          <t>太阳纸业12月19日被深股通减持18.82万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:50</t>
+          <t>12-20 07:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1259346761.html</t>
+          <t>/news,002078,1261721480.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出太阳纸业1963.5万元（12-13）</t>
+          <t>太阳纸业：连续3日融资净偿还累计2151.99万元（12-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 18:00</t>
+          <t>12-19 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1259133028.html</t>
+          <t>/news,002078,1261206825.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业回应纸浆价格：期货价格仍在高位 今年毛利率受影响</t>
+          <t>太阳纸业本周融资净买入587.09万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 15:24</t>
+          <t>12-18 15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1259089438.html</t>
+          <t>/news,002078,1261090634.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入1049.22万元，融资余额3.02亿元（12-12）</t>
+          <t>太阳纸业本周深股通持股市值增加579.06万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-13 08:48</t>
+          <t>12-18 14:17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1258768428.html</t>
+          <t>/news,002078,1261082078.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业12月12日获深股通增持28.14万股</t>
+          <t>太阳纸业12月16日被深股通减持68.09万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-13 07:55</t>
+          <t>12-17 07:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1258762177.html</t>
+          <t>/news,002078,1260976108.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
+          <t>太阳纸业：融资净偿还83.37万元，融资余额2.97亿元（12-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-12 08:51</t>
+          <t>12-16 09:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1258213576.html</t>
+          <t>/news,002078,1260490133.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,71 +691,71 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
+          <t>太阳纸业12月15日被深股通减持81.32万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-11 15:10</t>
+          <t>12-16 07:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1258090927.html</t>
+          <t>/news,002078,1260476156.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>778</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
+          <t>太阳纸业：拟对子公司南宁太阳增资10亿元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-15 17:01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1258081964.html</t>
+          <t>/news,002078,1260278843.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太阳纸业12月09日获深股通增持7.45万股</t>
+          <t>注意！太阳纸业将于2023年1月9日召开股东大会</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-10 07:51</t>
+          <t>12-15 16:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1257964943.html</t>
+          <t>/news,002078,1260273487.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
+          <t>太阳纸业：融资净偿还1054.27万元，融资余额2.98亿元（12-14）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-15 08:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1257405817.html</t>
+          <t>/news,002078,1259941480.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业12月08日获深股通增持66.95万股</t>
+          <t>太阳纸业12月14日获深股通增持37.21万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-15 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1257393806.html</t>
+          <t>/news,002078,1259933974.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
+          <t>太阳纸业：融资净买入675.52万元，融资余额3.09亿元（12-13）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-14 08:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1256765044.html</t>
+          <t>/news,002078,1259355219.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业12月07日被深股通减持34.62万股</t>
+          <t>太阳纸业12月13日获深股通增持136.13万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-14 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1256758328.html</t>
+          <t>/news,002078,1259346761.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
+          <t>大宗交易：机构账户卖出太阳纸业1963.5万元（12-13）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 08:50</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1256099151.html</t>
+          <t>/news,002078,1259133028.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业12月06日被深股通减持35.62万股</t>
+          <t>太阳纸业回应纸浆价格：期货价格仍在高位 今年毛利率受影响</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-07 07:48</t>
+          <t>12-13 15:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1256090898.html</t>
+          <t>/news,002078,1259089438.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
+          <t>太阳纸业：融资净买入1049.22万元，融资余额3.02亿元（12-12）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-06 11:18</t>
+          <t>12-13 08:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1255669040.html</t>
+          <t>/news,002078,1258768428.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
+          <t>太阳纸业12月12日获深股通增持28.14万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-06 08:41</t>
+          <t>12-13 07:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1255455538.html</t>
+          <t>/news,002078,1258762177.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业12月05日获深股通增持5.54万股</t>
+          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-12 08:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1255449704.html</t>
+          <t>/news,002078,1258213576.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-05 17:43</t>
+          <t>12-11 15:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1255244877.html</t>
+          <t>/news,002078,1258090927.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1258081964.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月09日获深股通增持7.45万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1257964943.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1257405817.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业12月08日获深股通增持66.95万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1257393806.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1256765044.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月07日被深股通减持34.62万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1256758328.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-07 08:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1256099151.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,71 +1331,71 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业12月06日被深股通减持35.62万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-07 07:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1256090898.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,103 +1683,103 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业11月11日获深股通增持180.84万股</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-12 07:49</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1245986606.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>2605</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还169.16万元，融资余额3.29亿元（11-10）</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 08:51</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1245424756.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业11月10日获深股通增持14.16万股</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1245412501.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中信证券维持太阳纸业买入评级 目标价15.7元</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 14:47</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1245205689.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入391.8万元，融资余额3.31亿元（11-09）</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1244898523.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业11月09日获深股通增持7.22万股</t>
+          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-10 07:41</t>
+          <t>11-15 08:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1244889157.html</t>
+          <t>/news,002078,1246697197.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还79.68万元，融资余额3.27亿元（11-08）</t>
+          <t>太阳纸业11月14日获深股通增持99.71万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 08:45</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1244435655.html</t>
+          <t>/news,002078,1246690054.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入270.68万元，融资余额3.28亿元（11-07）</t>
+          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-08 08:43</t>
+          <t>11-14 11:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1243981914.html</t>
+          <t>/news,002078,1246388653.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>1384</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业11月07日获深股通增持5.45万股</t>
+          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,83 +2909,83 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 07:54</t>
+          <t>11-14 11:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1243975305.html</t>
+          <t>/news,002078,1246380449.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华创证券维持太阳纸业强推评级 目标价15.5元</t>
+          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-07 10:38</t>
+          <t>11-14 08:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1243634800.html</t>
+          <t>/news,002078,1246195276.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还472.47万元，融资余额3.25亿元（11-04）</t>
+          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-07 08:41</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1243512122.html</t>
+          <t>/news,002078,1246100933.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入4478.92万元，居造纸印刷板块第一</t>
+          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-13 14:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1243413004.html</t>
+          <t>/news,002078,1246094845.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002078.xlsx
+++ b/news_ann/news/tmp/002078.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入759.04万元，融资余额2.95亿元（12-19）</t>
+          <t>太阳纸业：融资净偿还225.71万元，融资余额2.93亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 08:45</t>
+          <t>12-23 08:41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002078,1261730434.html</t>
+          <t>/news,002078,1263198614.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太阳纸业12月19日被深股通减持18.82万股</t>
+          <t>太阳纸业12月22日获深股通增持35.25万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:33</t>
+          <t>12-23 07:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002078,1261721480.html</t>
+          <t>/news,002078,1263191076.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计2151.99万元（12-16）</t>
+          <t>太阳纸业：融资净买入128.68万元，融资余额2.95亿元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,93 +541,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 08:50</t>
+          <t>12-22 08:39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002078,1261206825.html</t>
+          <t>/news,002078,1262676476.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入587.09万元，居造纸印刷板块第五</t>
+          <t>太阳纸业12月21日获深股通增持209.89万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 15:30</t>
+          <t>12-22 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002078,1261090634.html</t>
+          <t>/news,002078,1262668023.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加579.06万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：控股股东持股比例被动稀释超过1%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-18 14:17</t>
+          <t>12-21 12:25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002078,1261082078.html</t>
+          <t>/news,002078,1262376819.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太阳纸业12月16日被深股通减持68.09万股</t>
+          <t>太阳纸业：融资净偿还99.93万元，融资余额2.94亿元（12-20）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-17 07:53</t>
+          <t>12-21 08:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002078,1260976108.html</t>
+          <t>/news,002078,1262205562.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还83.37万元，融资余额2.97亿元（12-15）</t>
+          <t>太阳纸业12月20日被深股通减持116.49万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 09:08</t>
+          <t>12-21 07:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002078,1260490133.html</t>
+          <t>/news,002078,1262195875.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太阳纸业12月15日被深股通减持81.32万股</t>
+          <t>太阳纸业：融资净买入759.04万元，融资余额2.95亿元（12-19）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 07:45</t>
+          <t>12-20 08:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002078,1260476156.html</t>
+          <t>/news,002078,1261730434.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太阳纸业：拟对子公司南宁太阳增资10亿元</t>
+          <t>太阳纸业12月19日被深股通减持18.82万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-15 17:01</t>
+          <t>12-20 07:33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002078,1260278843.html</t>
+          <t>/news,002078,1261721480.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>注意！太阳纸业将于2023年1月9日召开股东大会</t>
+          <t>太阳纸业：连续3日融资净偿还累计2151.99万元（12-16）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-15 16:42</t>
+          <t>12-19 08:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002078,1260273487.html</t>
+          <t>/news,002078,1261206825.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,71 +787,71 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1054.27万元，融资余额2.98亿元（12-14）</t>
+          <t>太阳纸业本周融资净买入587.09万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-15 08:47</t>
+          <t>12-18 15:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002078,1259941480.html</t>
+          <t>/news,002078,1261090634.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太阳纸业12月14日获深股通增持37.21万股</t>
+          <t>太阳纸业本周深股通持股市值增加579.06万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-15 07:52</t>
+          <t>12-18 14:17</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002078,1259933974.html</t>
+          <t>/news,002078,1261082078.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入675.52万元，融资余额3.09亿元（12-13）</t>
+          <t>太阳纸业12月16日被深股通减持68.09万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-14 08:53</t>
+          <t>12-17 07:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002078,1259355219.html</t>
+          <t>/news,002078,1260976108.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太阳纸业12月13日获深股通增持136.13万股</t>
+          <t>太阳纸业：融资净偿还83.37万元，融资余额2.97亿元（12-15）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-14 07:50</t>
+          <t>12-16 09:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002078,1259346761.html</t>
+          <t>/news,002078,1260490133.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出太阳纸业1963.5万元（12-13）</t>
+          <t>太阳纸业12月15日被深股通减持81.32万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-13 18:00</t>
+          <t>12-16 07:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002078,1259133028.html</t>
+          <t>/news,002078,1260476156.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>太阳纸业回应纸浆价格：期货价格仍在高位 今年毛利率受影响</t>
+          <t>太阳纸业：拟对子公司南宁太阳增资10亿元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-13 15:24</t>
+          <t>12-15 17:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002078,1259089438.html</t>
+          <t>/news,002078,1260278843.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入1049.22万元，融资余额3.02亿元（12-12）</t>
+          <t>注意！太阳纸业将于2023年1月9日召开股东大会</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-13 08:48</t>
+          <t>12-15 16:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002078,1258768428.html</t>
+          <t>/news,002078,1260273487.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太阳纸业12月12日获深股通增持28.14万股</t>
+          <t>太阳纸业：融资净偿还1054.27万元，融资余额2.98亿元（12-14）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-13 07:55</t>
+          <t>12-15 08:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002078,1258762177.html</t>
+          <t>/news,002078,1259941480.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
+          <t>太阳纸业12月14日获深股通增持37.21万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-12 08:51</t>
+          <t>12-15 07:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002078,1258213576.html</t>
+          <t>/news,002078,1259933974.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：融资净买入675.52万元，融资余额3.09亿元（12-13）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-11 15:10</t>
+          <t>12-14 08:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002078,1258090927.html</t>
+          <t>/news,002078,1259355219.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
+          <t>太阳纸业12月13日获深股通增持136.13万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-14 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002078,1258081964.html</t>
+          <t>/news,002078,1259346761.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太阳纸业12月09日获深股通增持7.45万股</t>
+          <t>大宗交易：机构账户卖出太阳纸业1963.5万元（12-13）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-10 07:51</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002078,1257964943.html</t>
+          <t>/news,002078,1259133028.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>2446</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
+          <t>太阳纸业回应纸浆价格：期货价格仍在高位 今年毛利率受影响</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-13 15:24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002078,1257405817.html</t>
+          <t>/news,002078,1259089438.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太阳纸业12月08日获深股通增持66.95万股</t>
+          <t>太阳纸业：融资净买入1049.22万元，融资余额3.02亿元（12-12）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-13 08:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002078,1257393806.html</t>
+          <t>/news,002078,1258768428.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
+          <t>太阳纸业12月12日获深股通增持28.14万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-13 07:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002078,1256765044.html</t>
+          <t>/news,002078,1258762177.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太阳纸业12月07日被深股通减持34.62万股</t>
+          <t>太阳纸业：融资净偿还1440.77万元，融资余额2.92亿元（12-09）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-12 08:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002078,1256758328.html</t>
+          <t>/news,002078,1258213576.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
+          <t>太阳纸业本周融资净偿还656.02万元，居造纸印刷板块第三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-07 08:50</t>
+          <t>12-11 15:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002078,1256099151.html</t>
+          <t>/news,002078,1258090927.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太阳纸业12月06日被深股通减持35.62万股</t>
+          <t>太阳纸业本周深股通持股市值增加99.4万元，居造纸印刷板块第五</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-07 07:48</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002078,1256090898.html</t>
+          <t>/news,002078,1258081964.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
+          <t>太阳纸业12月09日获深股通增持7.45万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-06 11:18</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002078,1255669040.html</t>
+          <t>/news,002078,1257964943.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
+          <t>太阳纸业：融资净偿还504.87万元，融资余额3.06亿元（12-08）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-06 08:41</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002078,1255455538.html</t>
+          <t>/news,002078,1257405817.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太阳纸业12月05日获深股通增持5.54万股</t>
+          <t>太阳纸业12月08日获深股通增持66.95万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002078,1255449704.html</t>
+          <t>/news,002078,1257393806.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1092</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净买入66.79万元，融资余额3.11亿元（12-07）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-05 17:43</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002078,1255244877.html</t>
+          <t>/news,002078,1256765044.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月07日被深股通减持34.62万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-05 12:27</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002078,1255042463.html</t>
+          <t>/news,002078,1256758328.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业：融资净偿还90.84万元，融资余额3.1亿元（12-06）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-05 11:33</t>
+          <t>12-07 08:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002078,1255025503.html</t>
+          <t>/news,002078,1256099151.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
+          <t>太阳纸业12月06日被深股通减持35.62万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-05 11:24</t>
+          <t>12-07 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002078,1255021127.html</t>
+          <t>/news,002078,1256090898.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
+          <t>太阳纸业：2022年度公司广西基地北海园区80万吨化学浆项目投产后增加了一些化学浆的交易</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-06 11:18</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002078,1254958608.html</t>
+          <t>/news,002078,1255669040.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
+          <t>太阳纸业：融资净偿还127.1万元，融资余额3.11亿元（12-05）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-06 08:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002078,1254958601.html</t>
+          <t>/news,002078,1255455538.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
+          <t>太阳纸业12月05日获深股通增持5.54万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-05 10:40</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002078,1254957847.html</t>
+          <t>/news,002078,1255449704.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,51 +1693,51 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-05 08:45</t>
+          <t>12-05 17:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002078,1254801477.html</t>
+          <t>/news,002078,1255244877.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-05 12:27</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002078,1254651579.html</t>
+          <t>/news,002078,1255042463.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,39 +1747,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
+          <t>太阳纸业：到2022年底公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 11:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002078,1254643241.html</t>
+          <t>/news,002078,1255025503.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太阳纸业12月02日被深股通减持41.16万股</t>
+          <t>太阳纸业：目前公司在漂白木浆方面的自给率已经提升至60%左右，且以阔叶浆为主</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12-03 07:51</t>
+          <t>12-05 11:24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002078,1254512317.html</t>
+          <t>/news,002078,1255021127.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>744</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
+          <t>太阳纸业： 2022年度，公司向金融机构申请银行综合授信额度总计人民币328亿元，授信期限均为一年</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12-02 08:46</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002078,1253919820.html</t>
+          <t>/news,002078,1254958608.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
+          <t>太阳纸业：公司生产的溶解浆全部对外销售； 其他自制木浆包括化学机械浆</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12-01 08:37</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002078,1253307965.html</t>
+          <t>/news,002078,1254958601.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太阳纸业11月30日获深股通增持30.29万股</t>
+          <t>太阳纸业：到2022年底，公司生活用纸原纸的产能将达到39万吨</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-05 10:40</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002078,1253301778.html</t>
+          <t>/news,002078,1254957847.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
+          <t>太阳纸业：连续3日融资净买入累计829.61万元（12-02）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-30 08:43</t>
+          <t>12-05 08:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002078,1252785208.html</t>
+          <t>/news,002078,1254801477.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太阳纸业11月29日获深股通增持200.77万股</t>
+          <t>太阳纸业本周融资净买入172.14万元，居造纸印刷板块第七</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-30 07:43</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002078,1252776988.html</t>
+          <t>/news,002078,1254651579.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
+          <t>太阳纸业本周深股通持股市值增加2786.78万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-29 08:38</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002078,1252220319.html</t>
+          <t>/news,002078,1254643241.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太阳纸业11月28日获深股通增持67.62万股</t>
+          <t>太阳纸业12月02日被深股通减持41.16万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-03 07:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002078,1252211868.html</t>
+          <t>/news,002078,1254512317.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
+          <t>太阳纸业：融资净买入184.9万元，融资余额3.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-28 08:52</t>
+          <t>12-02 08:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002078,1251735356.html</t>
+          <t>/news,002078,1253919820.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
+          <t>太阳纸业：融资净买入143.35万元，融资余额3.06亿元（11-30）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>12-01 08:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002078,1251589862.html</t>
+          <t>/news,002078,1253307965.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月30日获深股通增持30.29万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002078,1251585090.html</t>
+          <t>/news,002078,1253301778.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>太阳纸业11月25日获深股通增持157.81万股</t>
+          <t>太阳纸业：融资净偿还343.64万元，融资余额3.04亿元（11-29）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-30 08:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002078,1251432719.html</t>
+          <t>/news,002078,1252785208.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
+          <t>太阳纸业11月29日获深股通增持200.77万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-30 07:43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002078,1250950349.html</t>
+          <t>/news,002078,1252776988.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太阳纸业11月24日获深股通增持42.22万股</t>
+          <t>太阳纸业：融资净买入187.53万元，融资余额3.08亿元（11-28）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-29 08:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002078,1250942963.html</t>
+          <t>/news,002078,1252220319.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
+          <t>太阳纸业11月28日获深股通增持67.62万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-24 08:48</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002078,1250428656.html</t>
+          <t>/news,002078,1252211868.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太阳纸业11月23日获深股通增持58.58万股</t>
+          <t>太阳纸业：融资净偿还922.69万元，融资余额3.06亿元（11-25）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-24 07:43</t>
+          <t>11-28 08:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002078,1250418648.html</t>
+          <t>/news,002078,1251735356.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
+          <t>太阳纸业本周融资净买入284.32万元，居造纸印刷板块第八</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 08:41</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002078,1249882431.html</t>
+          <t>/news,002078,1251589862.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太阳纸业11月22日获深股通增持78.28万股</t>
+          <t>太阳纸业本周深股通持股市值增加3480.24万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-23 07:47</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002078,1249875011.html</t>
+          <t>/news,002078,1251585090.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
+          <t>太阳纸业11月25日获深股通增持157.81万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-22 08:45</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002078,1249355274.html</t>
+          <t>/news,002078,1251432719.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>太阳纸业11月21日被深股通减持12.08万股</t>
+          <t>太阳纸业：融资净买入283.56万元，融资余额3.15亿元（11-24）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-22 07:41</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002078,1249346732.html</t>
+          <t>/news,002078,1250950349.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
+          <t>太阳纸业11月24日获深股通增持42.22万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-21 08:41</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002078,1248870640.html</t>
+          <t>/news,002078,1250942963.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,71 +2451,71 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
+          <t>太阳纸业：融资净偿还61.5万元，融资余额3.12亿元（11-23）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-20 15:06</t>
+          <t>11-24 08:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002078,1248769177.html</t>
+          <t>/news,002078,1250428656.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
+          <t>太阳纸业11月23日获深股通增持58.58万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-20 14:14</t>
+          <t>11-24 07:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002078,1248764112.html</t>
+          <t>/news,002078,1250418648.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>太阳纸业11月18日获深股通增持133.29万股</t>
+          <t>太阳纸业：融资净买入89.21万元，融资余额3.13亿元（11-22）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-19 07:52</t>
+          <t>11-23 08:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002078,1248638645.html</t>
+          <t>/news,002078,1249882431.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
+          <t>太阳纸业11月22日获深股通增持78.28万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-23 07:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002078,1248162610.html</t>
+          <t>/news,002078,1249875011.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>太阳纸业11月17日获深股通增持138.88万股</t>
+          <t>太阳纸业：连续3日融资净偿还累计1885.91万元（11-21）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-22 08:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002078,1248155792.html</t>
+          <t>/news,002078,1249355274.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
+          <t>太阳纸业11月21日被深股通减持12.08万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 08:40</t>
+          <t>11-22 07:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002078,1247674684.html</t>
+          <t>/news,002078,1249346732.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>太阳纸业11月16日被深股通减持16.04万股</t>
+          <t>太阳纸业：融资净偿还795.66万元，融资余额3.12亿元（11-18）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-21 08:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002078,1247669775.html</t>
+          <t>/news,002078,1248870640.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
+          <t>太阳纸业本周融资净偿还1042.99万元，居造纸印刷板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 15:13</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002078,1247501752.html</t>
+          <t>/news,002078,1248769177.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
+          <t>太阳纸业本周深股通持股市值增加3851.96万元，居造纸印刷板块第一</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>太阳纸业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-16 08:52</t>
+          <t>11-20 14:14</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002078,1247184480.html</t>
+          <t>/news,002078,1248764112.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>太阳纸业11月15日获深股通增持4.15万股</t>
+          <t>太阳纸业11月18日获深股通增持133.29万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-16 07:41</t>
+          <t>11-19 07:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002078,1247173967.html</t>
+          <t>/news,002078,1248638645.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
+          <t>太阳纸业：融资净偿还1063.31万元，融资余额3.2亿元（11-17）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-15 17:40</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002078,1247064706.html</t>
+          <t>/news,002078,1248162610.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净偿还515.84万元，融资余额3.25亿元（11-14）</t>
+          <t>太阳纸业11月17日获深股通增持138.88万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-15 08:44</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002078,1246697197.html</t>
+          <t>/news,002078,1248155792.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>太阳纸业11月14日获深股通增持99.71万股</t>
+          <t>太阳纸业：融资净买入319.6万元，融资余额3.31亿元（11-16）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-17 08:40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002078,1246690054.html</t>
+          <t>/news,002078,1247674684.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>太阳纸业：化学浆方面 公司广西基地拥有近100万吨左右的产能 山东基地拥有近10万吨左右的产能</t>
+          <t>太阳纸业11月16日被深股通减持16.04万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-14 11:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002078,1246388653.html</t>
+          <t>/news,002078,1247669775.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>太阳纸业：目前公司广西基地南宁园区的化学浆线已经实现了竹浆的规模化生产</t>
+          <t>太阳纸业：造出全球首张“无添加”生活用纸</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-14 11:30</t>
+          <t>11-16 15:13</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002078,1246380449.html</t>
+          <t>/news,002078,1247501752.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>太阳纸业：融资净买入113.45万元，融资余额3.31亿元（11-11）</t>
+          <t>太阳纸业：融资净买入216.56万元，融资余额3.28亿元（11-15）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-14 08:43</t>
+          <t>11-16 08:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002078,1246195276.html</t>
+          <t>/news,002078,1247184480.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>太阳纸业本周融资净买入413.63万元，居造纸印刷板块第四</t>
+          <t>太阳纸业11月15日获深股通增持4.15万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-16 07:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002078,1246100933.html</t>
+          <t>/news,002078,1247173967.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>837</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>太阳纸业本周深股通持股市值增加2168.19万元，居造纸印刷板块第三</t>
+          <t>太阳纸业：目前公司向金融机构的融资利率一般均会低于同期银行贷款基准利率</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>太阳纸业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-13 14:12</t>
+          <t>11-15 17:40</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002078,1246094845.html</t>
+          <t>/news,002078,1247064706.html</t>
         </is>
       </c>
     </row>
